--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_014.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_014.xlsx
@@ -31,304 +31,313 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295006) (APE 6) SCRAM (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295037EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Boron injection</t>
-  </si>
-  <si>
-    <t>(295038EA1.15) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Condenser air removal system</t>
-  </si>
-  <si>
-    <t>(295018AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Increasing cooling water flow to heat exchangers</t>
-  </si>
-  <si>
-    <t>(295025EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295027EK2.02) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Components internal to the containment</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295019AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Alignment of backup air systems</t>
-  </si>
-  <si>
-    <t>(295021AA1.03) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(295001AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Power/flow distribution</t>
-  </si>
-  <si>
-    <t>(295024EA2.11) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell integrity</t>
-  </si>
-  <si>
-    <t>(700000AK2.10) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Emergency generators (diesel/jet)</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(295016AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Abandonment criteria</t>
-  </si>
-  <si>
-    <t>(295023AA1.07) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(295003AK1.08) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Emergency diesel generator load limits</t>
-  </si>
-  <si>
-    <t>(600000AA2.04) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) The fire’s extent of potential operational damage to plant equipment</t>
-  </si>
-  <si>
-    <t>(295030EK2.02) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295026EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Suppression pool cooling</t>
-  </si>
-  <si>
-    <t>(295007AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.5 / 41.10) Pump shutoff head</t>
-  </si>
-  <si>
-    <t>(295014AA2.01) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295033EK2.03) Knowledge of the relationship between the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS and the following systems or components: (CFR: 41.7 / 45.8) Secondary containment ventilation</t>
-  </si>
-  <si>
-    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295002AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.5 / 45.6) Main steam isolation valve closure</t>
-  </si>
-  <si>
-    <t>(295032EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.7 / 45.6) PCIS/NSSSS</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(400000K3.12) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(239002A2.06) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Reactor high pressure</t>
-  </si>
-  <si>
-    <t>(259002K4.13) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) FWRV lockup</t>
-  </si>
-  <si>
-    <t>(264000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency core cooling systems</t>
-  </si>
-  <si>
-    <t>(212000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) RPS bus status</t>
-  </si>
-  <si>
-    <t>(205000A4.01) Ability to manually operate and/or monitor the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) in the control room: (CFR: 41.7 / 45.5 to 45.8) SDC/RHR pumps</t>
-  </si>
-  <si>
-    <t>(211000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) Effects of the moderator temperature coefficient of reactivity on boron</t>
-  </si>
-  <si>
-    <t>(209001A3.02) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump start</t>
-  </si>
-  <si>
-    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
-  </si>
-  <si>
-    <t>(261000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (291002K1.01) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Operational characteristics of venturis and orifices</t>
-  </si>
-  <si>
-    <t>(217000K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor vessel pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(215005A2.13) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
-  </si>
-  <si>
-    <t>(263000K4.05) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Coping time</t>
-  </si>
-  <si>
-    <t>(215004K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(262001A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(300000A4.03) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Manual isolations</t>
-  </si>
-  <si>
-    <t>(215003K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Changing detector position</t>
-  </si>
-  <si>
-    <t>(262002A3.01) Ability to monitor automatic operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.7 / 45.7) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(223002K2.01) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF Knowledge of electrical power supplies to the following: (CFR: 41.7) Logic power supplies</t>
-  </si>
-  <si>
-    <t>(209002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(400000K3.05) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Control rod drive hydraulic system</t>
-  </si>
-  <si>
-    <t>(239002A2.02) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Leaking SRV</t>
-  </si>
-  <si>
-    <t>(259002K4.17) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Simultaneous manual and automatic operation of the system (i.e., 1 RFP in automatic, 1 RFP in manual)</t>
-  </si>
-  <si>
-    <t>(230000K2.03) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Control logic</t>
-  </si>
-  <si>
-    <t>(288000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 PVS) PLANT VENTILATION SYSTEMS : (CFR: 41.7 / 45.7) Heating, ventilation, and air conditioning system cooling water systems</t>
-  </si>
-  <si>
-    <t>(234000) (SF8 FH) FUEL HANDLING (291008K1.09) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Effect of racking out breakers on control and indicating circuits and removal of control power on breaker operation</t>
-  </si>
-  <si>
-    <t>(239003K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(202002A2.13) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of loop flow signal</t>
-  </si>
-  <si>
-    <t>(219000K4.03) Knowledge of (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Diverting flow from the RPV to the containment during accident conditions</t>
-  </si>
-  <si>
-    <t>(215001K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 TIP) TRAVERSING IN CORE PROBE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(271000A1.15) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.5 / 45.3 / 45.5) Steam supply pressures</t>
-  </si>
-  <si>
-    <t>(290002K3.02) Knowledge of the effect that a loss or malfunction of the (SF4 RVI) REACTOR VESSEL INTERNALS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(233000K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP: (CFR: 41.5 / 45.3) Refueling operations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(226001A3.01) Ability to monitor automatic operation of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE including: (CFR: 41.7 / 45.7) Valve operation </t>
-  </si>
-  <si>
-    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+    <t>(295027EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Reactor water level measurement</t>
+  </si>
+  <si>
+    <t>(600000AA1.01) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Respirator air pack</t>
+  </si>
+  <si>
+    <t>(295001AA2.02) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Neutron monitoring</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295024EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Emergency depressurization</t>
+  </si>
+  <si>
+    <t>(295019AK2.19) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
+  </si>
+  <si>
+    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295005AA1.05) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295023AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Personnel evacuation</t>
+  </si>
+  <si>
+    <t>(295016AK2.14) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Cooling water systems</t>
+  </si>
+  <si>
+    <t>(295025EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Decay heat</t>
+  </si>
+  <si>
+    <t>(295038EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) MSIV leakage control</t>
+  </si>
+  <si>
+    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
+  </si>
+  <si>
+    <t>(295037EK2.16) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(295018AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Starting the standby pump</t>
+  </si>
+  <si>
+    <t>(295030EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Systems required to shut down the reactor</t>
+  </si>
+  <si>
+    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295007AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reactor/turbine pressure regulating system operation</t>
+  </si>
+  <si>
+    <t>(295013AK2.03) Knowledge of the relationship between the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. and the following systems or components: (CFR: 41.7 / 45.8) RCIC/HPCI operation</t>
+  </si>
+  <si>
+    <t>(295017AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
+  </si>
+  <si>
+    <t>(295011AA1.01) Ability to operate and/or monitor the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling system</t>
+  </si>
+  <si>
+    <t>(295020AA2.01) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment pressure</t>
+  </si>
+  <si>
+    <t>(218000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) ADS valve position indications</t>
+  </si>
+  <si>
+    <t>(300000K5.14) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) Air leaks</t>
+  </si>
+  <si>
+    <t>(510000A4.02) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Valve operations</t>
+  </si>
+  <si>
+    <t>(215004A3.03) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) RPS status</t>
+  </si>
+  <si>
+    <t>(217000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Suppression pool</t>
+  </si>
+  <si>
+    <t>(262002A2.05) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of UPS</t>
+  </si>
+  <si>
+    <t>(400000K3.18) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Reactor feedwater system</t>
+  </si>
+  <si>
+    <t>(259002K4.09) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Single-element control (reactor water level provides the only input)</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(263000K2.03) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Battery chargers</t>
+  </si>
+  <si>
+    <t>(264000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) Starting air components</t>
+  </si>
+  <si>
+    <t>(262001A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) System power</t>
+  </si>
+  <si>
+    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(205000A4.02) Ability to manually operate and/or monitor the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) in the control room: (CFR: 41.7 / 45.5 to 45.8) SDC/RHR valves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(203000A3.02) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Pump start </t>
+  </si>
+  <si>
+    <t>(239002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(209002A2.14) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(209001K3.03) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Emergency generators</t>
+  </si>
+  <si>
+    <t>(211000K4.13) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Tank heater operation</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (291005K1.09) MOTORS AND GENERATORS (CFR: 41.7) Interrelations of the following: VARs, watts, amps, volts, power factor</t>
+  </si>
+  <si>
+    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
+  </si>
+  <si>
+    <t>(261000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Primary containment high pressure</t>
+  </si>
+  <si>
+    <t>(218000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) Reactor water level</t>
+  </si>
+  <si>
+    <t>(300000K5.13) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) Low instrument air pressure</t>
+  </si>
+  <si>
+    <t>(510000A4.01) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Pump operations</t>
+  </si>
+  <si>
+    <t>(215004A3.04) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block status</t>
+  </si>
+  <si>
+    <t>(239001K2.02) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Main steam line shutoff valves</t>
+  </si>
+  <si>
+    <t>(239003K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) : (CFR: 41.7 / 45.7) Outboard MSIV leakage</t>
+  </si>
+  <si>
+    <t>(219000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.5 / 45.5) Suppression chamber air temperature</t>
+  </si>
+  <si>
+    <t>(215001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 TIP) TRAVERSING IN CORE PROBE: (CFR: 41.5 / 45.3) Flux detection</t>
+  </si>
+  <si>
+    <t>(510001A4.01) Ability to manually operate and/or monitor the (SF8 CWS*) CIRCULATING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Circulating water pumps</t>
+  </si>
+  <si>
+    <t>(216000K4.01) Knowledge of (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION design features and/or interlocks that provide for the following: (CFR: 41.7) Reading of nuclear boiler parameters outside the control room</t>
+  </si>
+  <si>
+    <t>(268000K1.18) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 RW) RADWASTE SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment</t>
+  </si>
+  <si>
+    <t>(259001A2.03) Ability to (a) predict the impacts of the following on the (SF2 FWS) FEEDWATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of condensate system pump(s)</t>
+  </si>
+  <si>
+    <t>(201005K3.05) Knowledge of the effect that a loss or malfunction of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) will have on the following systems or system parameters: (CFR: 41.6 / 41.7 / 45.4 to 45.6) Control rod drive mechanism system</t>
+  </si>
+  <si>
+    <t>(233000K4.01) Knowledge of (SF9 FPCCU) FUEL POOL COOLING/CLEANUP design features and/or interlocks that provide for the following: (CFR: 41.7) Redundancy</t>
+  </si>
+  <si>
+    <t>(286000) (SF8 FPS) FIRE PROTECTION SYSTEM  (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
   </si>
   <si>
     <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
   </si>
   <si>
-    <t>(G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292006K1.01) FISSION PRODUCT POISONS (CFR: 41.1) Define fission product poison</t>
-  </si>
-  <si>
-    <t>(292001K1.02) NEUTRONS (CFR: 41.1) Define prompt and delayed neutrons</t>
-  </si>
-  <si>
-    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
-  </si>
-  <si>
-    <t>(293007K1.08) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) List functions of the main condenser in a power plant</t>
-  </si>
-  <si>
-    <t>(293004K1.04) THERMODYNAMIC PROCESS (CFR: 41.14) (NOZZLES) Describe the functions of nozzles in air ejectors</t>
-  </si>
-  <si>
-    <t>(293003K1.12) STEAM (CFR: 41.14) Define the following term: Quality</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295018AA2.05) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System pressure</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295034EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Ventilation radiation levels</t>
-  </si>
-  <si>
-    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(212000A2.11) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) </t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(211000A2.04) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate SLCS system flow</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(286000A2.01) Ability to (a) predict the impacts of the following on the (SF8 FPS) FIRE PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) System logic failure</t>
-  </si>
-  <si>
-    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(272000A2.07) Ability to (a) predict the impacts of the following on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Hydrogen injection operation</t>
-  </si>
-  <si>
-    <t>(G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+    <t>(G2.4.34) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities outside the main control room during an emergency (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292003K1.01) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the concept of subcritical multiplication</t>
+  </si>
+  <si>
+    <t>(292004K1.11) REACTIVITY COEFFICIENTS (CFR: 41.1) Describe the effect on the magnitude of void coefficient from changes in the following: --Core void fraction</t>
+  </si>
+  <si>
+    <t>(292002K1.08) NEUTRON LIFE CYCLE (CFR: 41.1) Define effective multiplication factor (K-effective) and discuss its relationship to the state of a reactor (critical, subcritical, and supercritical)</t>
+  </si>
+  <si>
+    <t>(293008K1.17) THERMAL HYDRAULICS (CFR: 41.14) (TWO-PHASE FLOW) Describe onset of transition boiling point along a hypothetical fuel channel, experiencing two phase flow</t>
+  </si>
+  <si>
+    <t>(293007K1.06) HEAT TRANSFER (CFR: 41.14) (HEAT EXCHANGERS) Discuss the factors that affect heat transfer rate in</t>
+  </si>
+  <si>
+    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
+  </si>
+  <si>
+    <t>(295027EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295001AA2.11) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Individual loop flow(s)</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295024EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
+  </si>
+  <si>
+    <t>(295033EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Source of high area radiation</t>
+  </si>
+  <si>
+    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295034EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Source of high radiation levels</t>
+  </si>
+  <si>
+    <t>(217000A2.07) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of lube oil</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(400000A2.03) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High/low CCW temperature</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(223002A2.12) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Plant pneumatic system failures</t>
+  </si>
+  <si>
+    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(234000A2.08) Ability to (a) predict the impacts of the following on the (SF8 FH) FUEL HANDLING and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Fuel pool ventilation malfunction</t>
+  </si>
+  <si>
+    <t>(226001) (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE  (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>G</t>
@@ -337,30 +346,21 @@
     <t>K3</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>K2</t>
   </si>
   <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>K4</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>K6</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
     <t>295006</t>
   </si>
   <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
     <t>295037</t>
   </si>
   <si>
-    <t>295038</t>
-  </si>
-  <si>
     <t>295018</t>
   </si>
   <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
     <t>295030</t>
   </si>
   <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295026</t>
+    <t>500000</t>
   </si>
   <si>
     <t>295007</t>
   </si>
   <si>
-    <t>295014</t>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293005</t>
   </si>
   <si>
     <t>295033</t>
   </si>
   <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>209002</t>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295034</t>
   </si>
   <si>
     <t>230000</t>
   </si>
   <si>
-    <t>288000</t>
-  </si>
-  <si>
     <t>234000</t>
   </si>
   <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
     <t>226001</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>272000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D33" t="s">
         <v>107</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D37" t="s">
         <v>110</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D48" t="s">
         <v>110</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1837,7 +1837,7 @@
         <v>3.7</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D54" t="s">
         <v>110</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,7 +1987,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D61" t="s">
         <v>107</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2483,7 +2483,7 @@
         <v>3.8</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
